--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="440" windowWidth="17200" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="14820" yWindow="1920" windowWidth="17200" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,55 +19,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
-  <si>
-    <t>Dairy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Milk</t>
   </si>
   <si>
-    <t>Yogurt</t>
-  </si>
-  <si>
-    <t>Meats</t>
-  </si>
-  <si>
-    <t>Beef</t>
-  </si>
-  <si>
-    <t>Pork</t>
-  </si>
-  <si>
-    <t>Ham</t>
-  </si>
-  <si>
-    <t>Steak</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Vegetables</t>
-  </si>
-  <si>
-    <t>Green Beans</t>
-  </si>
-  <si>
-    <t>Peas</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
-    <t>low</t>
+    <t>Delmonte Tomato Sauce</t>
+  </si>
+  <si>
+    <t>Stokley's Canned Carrots</t>
+  </si>
+  <si>
+    <t>Concentrated Cranberry Juice</t>
+  </si>
+  <si>
+    <t>Grape Juice</t>
+  </si>
+  <si>
+    <t>Syrup</t>
+  </si>
+  <si>
+    <t>Apple Juice</t>
+  </si>
+  <si>
+    <t>Quick Rolled Oats</t>
+  </si>
+  <si>
+    <t>ABC Peanut Butter</t>
+  </si>
+  <si>
+    <t>Macaroni and Cheese</t>
+  </si>
+  <si>
+    <t>Pasta Sanita Spagetti Whole Wheat</t>
+  </si>
+  <si>
+    <t>Apple Sauce</t>
+  </si>
+  <si>
+    <t>Stuffing Mix</t>
+  </si>
+  <si>
+    <t>Enriched Macaroni Product</t>
+  </si>
+  <si>
+    <t>Organic Whole Wheat Macaroni Product</t>
+  </si>
+  <si>
+    <t>Argo Green Beans</t>
+  </si>
+  <si>
+    <t>Sunmaid Raisins</t>
+  </si>
+  <si>
+    <t>Mixed Canned Vegetables</t>
+  </si>
+  <si>
+    <t>Condensed Vegetable Soup</t>
+  </si>
+  <si>
+    <t>Gravy Mix</t>
+  </si>
+  <si>
+    <t>Brown Rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal </t>
+  </si>
+  <si>
+    <t>General Items</t>
+  </si>
+  <si>
+    <t>Cereal</t>
+  </si>
+  <si>
+    <t>Current Number</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Number </t>
+  </si>
+  <si>
+    <t>Needed Items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,28 +124,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -105,33 +156,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -460,34 +505,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>20</v>
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -495,131 +545,320 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>50</v>
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C12">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1">
-        <v>20</v>
+      <c r="D12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>10</v>
       </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
+      <c r="D26" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
